--- a/OSSemTask_ILZGJC/37Feladat.xlsx
+++ b/OSSemTask_ILZGJC/37Feladat.xlsx
@@ -177,9 +177,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>425229</xdr:colOff>
+      <xdr:colOff>425228</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>115205</xdr:rowOff>
+      <xdr:rowOff>115204</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3951073" cy="1545770"/>
     <xdr:pic>
@@ -208,7 +208,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>425229</xdr:colOff>
+      <xdr:colOff>425228</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>126357</xdr:rowOff>
     </xdr:from>
@@ -964,63 +964,66 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
       <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
       <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
         <v>6</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>7</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>8</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>9</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>10</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>11</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>12</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>13</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>14</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>15</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>16</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>17</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>18</v>
       </c>
-      <c r="T3" s="5">
+      <c r="U3" s="5">
         <v>19</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="5">
         <v>20</v>
       </c>
       <c r="W3" s="6"/>
